--- a/results/evaluate-es.xlsx
+++ b/results/evaluate-es.xlsx
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8084415584415584</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8745762711864407</v>
+        <v>0.8498293515358362</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6546167493629049</v>
+        <v>0.6708835209899706</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8250825082508251</v>
+        <v>0.8220064724919094</v>
       </c>
       <c r="P3" t="n">
-        <v>0.847457627118644</v>
+        <v>0.8668941979522184</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6615187084751089</v>
+        <v>0.6623439333469571</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.814935064935065</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8508474576271187</v>
+        <v>0.8088737201365188</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6719209733548195</v>
+        <v>0.6641273053418925</v>
       </c>
     </row>
     <row r="5">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8269896193771626</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8101694915254237</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6715176932847322</v>
+        <v>0.663396331629528</v>
       </c>
     </row>
     <row r="6">
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8145695364238411</v>
+        <v>0.8384879725085911</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8338983050847457</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6689123567233461</v>
+        <v>0.6629242848429046</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.815068493150685</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8067796610169492</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6771394165594187</v>
+        <v>0.6672148625226492</v>
       </c>
     </row>
     <row r="8">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8287671232876712</v>
+        <v>0.8133333333333334</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8203389830508474</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6654794401705646</v>
+        <v>0.6677302766767182</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.8071895424836601</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.8430034129692833</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6655791900051173</v>
+        <v>0.6789621163335481</v>
       </c>
     </row>
     <row r="10">
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.82</v>
+        <v>0.8523985239852399</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8338983050847457</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6664312681409595</v>
+        <v>0.668817726071812</v>
       </c>
     </row>
     <row r="11">
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>62.89978678038379</v>
+        <v>62.8755364806867</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8067796610169492</v>
+        <v>0.8290909090909091</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8067796610169492</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6720786558539629</v>
+        <v>0.6791711733576565</v>
       </c>
     </row>
     <row r="12">
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8175438596491228</v>
+        <v>0.7947882736156352</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7925170068027211</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6809476267578255</v>
+        <v>0.6772689137775332</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7940199335548173</v>
+        <v>0.804635761589404</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8129251700680272</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6866522028914883</v>
+        <v>0.6787195113792664</v>
       </c>
     </row>
     <row r="14">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8093645484949833</v>
+        <v>0.8271186440677966</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6769366926617093</v>
+        <v>0.6695346252821243</v>
       </c>
     </row>
     <row r="15">
@@ -1272,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7968253968253968</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8537414965986394</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6783620674385984</v>
+        <v>0.6730872850857148</v>
       </c>
     </row>
     <row r="16">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8241379310344827</v>
+        <v>0.8271186440677966</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8129251700680272</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6719134241087824</v>
+        <v>0.661821145955194</v>
       </c>
     </row>
     <row r="17">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8075601374570447</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7993197278911565</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6798540455663306</v>
+        <v>0.6545646637359064</v>
       </c>
     </row>
     <row r="18">
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8369565217391305</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6732310973680936</v>
+        <v>0.6623901524431445</v>
       </c>
     </row>
     <row r="19">
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8286713286713286</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8061224489795918</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6730127003457811</v>
+        <v>0.6714972403115839</v>
       </c>
     </row>
     <row r="20">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7934426229508197</v>
+        <v>0.8350877192982457</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6762942259128277</v>
+        <v>0.6670028356719578</v>
       </c>
     </row>
     <row r="21">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>62.82051282051282</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7723076923076924</v>
+        <v>0.8217821782178217</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8537414965986394</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6869524309777806</v>
+        <v>0.6633318066596985</v>
       </c>
     </row>
     <row r="22">
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8173076923076923</v>
+        <v>0.8311258278145696</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8673469387755102</v>
+        <v>0.847972972972973</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6600847865835757</v>
+        <v>0.6610068263774718</v>
       </c>
     </row>
     <row r="23">
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8397212543554007</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8197278911564626</v>
+        <v>0.7905405405405406</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6606336969890227</v>
+        <v>0.6652458578411434</v>
       </c>
     </row>
     <row r="24">
@@ -1785,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8223684210526315</v>
       </c>
       <c r="P24" t="n">
-        <v>0.826530612244898</v>
+        <v>0.8445945945945946</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6715335009950641</v>
+        <v>0.6662773454518328</v>
       </c>
     </row>
     <row r="25">
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.823728813559322</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7993197278911565</v>
+        <v>0.8209459459459459</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6725320844119315</v>
+        <v>0.6741626406930814</v>
       </c>
     </row>
     <row r="26">
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.814935064935065</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.847972972972973</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6709148562184237</v>
+        <v>0.6674210634201195</v>
       </c>
     </row>
     <row r="27">
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8344827586206897</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7993197278911565</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6720989952761305</v>
+        <v>0.6619033775511821</v>
       </c>
     </row>
     <row r="28">
@@ -2013,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8106312292358804</v>
+        <v>0.8062283737024222</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.7871621621621622</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6728346720497409</v>
+        <v>0.6850314540215106</v>
       </c>
     </row>
     <row r="29">
@@ -2070,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8088737201365188</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8061224489795918</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6789291744824395</v>
+        <v>0.673445503043521</v>
       </c>
     </row>
     <row r="30">
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8843537414965986</v>
+        <v>0.8614864864864865</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6673863634818116</v>
+        <v>0.6631002594457817</v>
       </c>
     </row>
     <row r="31">
@@ -2184,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8151815181518152</v>
+        <v>0.8225255972696246</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8401360544217688</v>
+        <v>0.8141891891891891</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.66959812375667</v>
+        <v>0.6745447039351089</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8159722222222222</v>
+        <v>0.8191489361702128</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7993197278911565</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6779412474060467</v>
+        <v>0.6775797243036601</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8211920529801324</v>
+        <v>0.8284671532846716</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.7721088435374149</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6655068026109732</v>
+        <v>0.6805702668696451</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8040540540540541</v>
+        <v>0.8243727598566308</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6770574773404532</v>
+        <v>0.6804054819797295</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8339100346020761</v>
+        <v>0.7993421052631579</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8197278911564626</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6651414258832339</v>
+        <v>0.6809566564682464</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8503401360544217</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6662614882885771</v>
+        <v>0.679541598806034</v>
       </c>
     </row>
     <row r="37">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8155339805825242</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6666971543361084</v>
+        <v>0.685844042316494</v>
       </c>
     </row>
     <row r="38">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8215488215488216</v>
+        <v>0.8187919463087249</v>
       </c>
       <c r="P38" t="n">
         <v>0.8299319727891157</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6685242743512547</v>
+        <v>0.6699986881566508</v>
       </c>
     </row>
     <row r="39">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8388278388278388</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7789115646258503</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6748981064851586</v>
+        <v>0.6754458096093744</v>
       </c>
     </row>
     <row r="40">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8203389830508474</v>
+        <v>0.7919254658385093</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.8673469387755102</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6686267097195415</v>
+        <v>0.6745610405597238</v>
       </c>
     </row>
     <row r="41">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8149466192170819</v>
       </c>
       <c r="P41" t="n">
-        <v>0.782312925170068</v>
+        <v>0.7789115646258503</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6750364863898055</v>
+        <v>0.6839204901546176</v>
       </c>
     </row>
     <row r="42">
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.825503355704698</v>
+        <v>0.8269896193771626</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.6659327279576908</v>
+        <v>0.6730393481510941</v>
       </c>
     </row>
     <row r="43">
@@ -2868,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.7946428571428571</v>
+        <v>0.7854785478547854</v>
       </c>
       <c r="P43" t="n">
-        <v>0.9081632653061225</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6626858282395552</v>
+        <v>0.686118108739135</v>
       </c>
     </row>
     <row r="44">
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8136645962732919</v>
+        <v>0.7766990291262136</v>
       </c>
       <c r="P44" t="n">
-        <v>0.891156462585034</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6549151533420897</v>
+        <v>0.6926191590165579</v>
       </c>
     </row>
     <row r="45">
@@ -2982,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8215488215488216</v>
+        <v>0.8125</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.8430034129692833</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6675116764401471</v>
+        <v>0.6747169718947462</v>
       </c>
     </row>
     <row r="46">
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8121019108280255</v>
+        <v>0.8</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8673469387755102</v>
+        <v>0.8464163822525598</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6624612878425729</v>
+        <v>0.6788847188795767</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3096,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8050314465408805</v>
+        <v>0.8101694915254237</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6643224846116991</v>
+        <v>0.6783618582192288</v>
       </c>
     </row>
     <row r="48">
@@ -3153,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7810650887573964</v>
+        <v>0.8216783216783217</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6730932769479282</v>
+        <v>0.674536374820176</v>
       </c>
     </row>
     <row r="49">
@@ -3210,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8268551236749117</v>
+        <v>0.8129032258064516</v>
       </c>
       <c r="P49" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.8600682593856656</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6726851582016629</v>
+        <v>0.6673547406350413</v>
       </c>
     </row>
     <row r="50">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8338983050847457</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6636958046949906</v>
+        <v>0.6797694372874434</v>
       </c>
     </row>
     <row r="51">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>62.95503211991434</v>
+        <v>63.01075268817205</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8105590062111802</v>
+        <v>0.8062283737024222</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8877551020408163</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6608676572172749</v>
+        <v>0.677916214158458</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8374558303886925</v>
+        <v>0.8674242424242424</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8061224489795918</v>
+        <v>0.7789115646258503</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6664160003754005</v>
+        <v>0.6628240759163393</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.819672131147541</v>
+        <v>0.8415094339622642</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8503401360544217</v>
+        <v>0.7585034013605442</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6643048690779562</v>
+        <v>0.6814173930972751</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8262411347517731</v>
       </c>
       <c r="P54" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.664549510790398</v>
+        <v>0.67627006590494</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8092105263157895</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8401360544217688</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6648934968533812</v>
+        <v>0.6760660158490216</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8262295081967214</v>
+        <v>0.841726618705036</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6579152239721898</v>
+        <v>0.6674627152449059</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8551236749116607</v>
+        <v>0.8243243243243243</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6528224896567791</v>
+        <v>0.6653870603257124</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.8284789644012945</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="P58" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.6550627512901191</v>
+        <v>0.6622261351385259</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="P59" t="n">
-        <v>0.8673469387755102</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6549536067617526</v>
+        <v>0.6768384569462157</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6503891167599843</v>
+        <v>0.67152144924221</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8403908794788274</v>
+        <v>0.825503355704698</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6527379555926843</v>
+        <v>0.6633052878257294</v>
       </c>
     </row>
     <row r="62">
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.85</v>
+        <v>0.8012820512820513</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6631027244398374</v>
+        <v>0.6718460347007784</v>
       </c>
     </row>
     <row r="63">
@@ -4008,7 +4008,7 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8145695364238411</v>
+        <v>0.8316151202749141</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6710261822512624</v>
+        <v>0.6696217195670492</v>
       </c>
     </row>
     <row r="64">
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8440677966101695</v>
+        <v>0.8087248322147651</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8469387755102041</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6552826513314911</v>
+        <v>0.6765446361042399</v>
       </c>
     </row>
     <row r="65">
@@ -4122,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8217821782178217</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="P65" t="n">
-        <v>0.8469387755102041</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6621661824383623</v>
+        <v>0.6828089228515462</v>
       </c>
     </row>
     <row r="66">
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8633093525179856</v>
+        <v>0.7981366459627329</v>
       </c>
       <c r="P66" t="n">
-        <v>0.8163265306122449</v>
+        <v>0.8741496598639455</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.6556564863029333</v>
+        <v>0.6700974933067616</v>
       </c>
     </row>
     <row r="67">
@@ -4236,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.8515901060070671</v>
+        <v>0.7943037974683544</v>
       </c>
       <c r="P67" t="n">
-        <v>0.8197278911564626</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6579860026371811</v>
+        <v>0.6753389380008877</v>
       </c>
     </row>
     <row r="68">
@@ -4293,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8618181818181818</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="P68" t="n">
-        <v>0.8061224489795918</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6542594252868179</v>
+        <v>0.6752401572440315</v>
       </c>
     </row>
     <row r="69">
@@ -4350,7 +4350,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.8131147540983606</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="P69" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6671049546378582</v>
+        <v>0.6751392534874028</v>
       </c>
     </row>
     <row r="70">
@@ -4407,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.8105590062111802</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P70" t="n">
-        <v>0.8877551020408163</v>
+        <v>0.7482993197278912</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6571073863950481</v>
+        <v>0.6807303236789458</v>
       </c>
     </row>
     <row r="71">
@@ -4464,7 +4464,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>62.95503211991434</v>
+        <v>63.0901287553648</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.8154362416107382</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="P71" t="n">
-        <v>0.826530612244898</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.673385211563723</v>
+        <v>0.6774615988199292</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8356643356643356</v>
+        <v>0.801948051948052</v>
       </c>
       <c r="P72" t="n">
-        <v>0.8129251700680272</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6677308714364274</v>
+        <v>0.6744463175726652</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.8115015974440895</v>
+        <v>0.8078175895765473</v>
       </c>
       <c r="P73" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.6640873366300758</v>
+        <v>0.6750455945411127</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8083067092651757</v>
+        <v>0.8153310104529616</v>
       </c>
       <c r="P74" t="n">
-        <v>0.8605442176870748</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6651920866404663</v>
+        <v>0.6761132689308559</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8127090301003345</v>
+        <v>0.786833855799373</v>
       </c>
       <c r="P75" t="n">
-        <v>0.826530612244898</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.6699773124249641</v>
+        <v>0.6799078425452336</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8401360544217688</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P76" t="n">
-        <v>0.8401360544217688</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.6579140298371652</v>
+        <v>0.6813625398488831</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.7865853658536586</v>
+        <v>0.8350515463917526</v>
       </c>
       <c r="P77" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.6721676083907836</v>
+        <v>0.6715830993346025</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.8093645484949833</v>
+        <v>0.7839506172839507</v>
       </c>
       <c r="P78" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6763319171470544</v>
+        <v>0.6779457589798872</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.819078947368421</v>
+        <v>0.7806451612903226</v>
       </c>
       <c r="P79" t="n">
-        <v>0.8469387755102041</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.6639991887631712</v>
+        <v>0.6894068167858002</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.8164556962025317</v>
+        <v>0.7993630573248408</v>
       </c>
       <c r="P80" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.6587719538227138</v>
+        <v>0.6726901341046204</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.8024691358024691</v>
+        <v>0.8026315789473685</v>
       </c>
       <c r="P81" t="n">
-        <v>0.8843537414965986</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.6628606648720817</v>
+        <v>0.6775612824734069</v>
       </c>
     </row>
     <row r="82">
@@ -5091,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.8498293515358362</v>
+        <v>0.801980198019802</v>
       </c>
       <c r="P82" t="n">
-        <v>0.8469387755102041</v>
+        <v>0.8209459459459459</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.6510379191894858</v>
+        <v>0.6800421853480572</v>
       </c>
     </row>
     <row r="83">
@@ -5148,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.8268551236749117</v>
+        <v>0.8</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6767735643356209</v>
+        <v>0.6758566888527758</v>
       </c>
     </row>
     <row r="84">
@@ -5205,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.8</v>
+        <v>0.8166089965397924</v>
       </c>
       <c r="P84" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.7972972972972973</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6677229964758651</v>
+        <v>0.6779373229941997</v>
       </c>
     </row>
     <row r="85">
@@ -5262,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7836990595611285</v>
+        <v>0.8281786941580757</v>
       </c>
       <c r="P85" t="n">
-        <v>0.8503401360544217</v>
+        <v>0.8141891891891891</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6801064971682856</v>
+        <v>0.6659931078584838</v>
       </c>
     </row>
     <row r="86">
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.7938461538461539</v>
+        <v>0.8116883116883117</v>
       </c>
       <c r="P86" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8445945945945946</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.6705573795949621</v>
+        <v>0.667898308699298</v>
       </c>
     </row>
     <row r="87">
@@ -5376,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.8162544169611308</v>
+        <v>0.7907692307692308</v>
       </c>
       <c r="P87" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8682432432432432</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.6816279604807656</v>
+        <v>0.674732337711723</v>
       </c>
     </row>
     <row r="88">
@@ -5433,7 +5433,7 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.8288590604026845</v>
+        <v>0.7942122186495176</v>
       </c>
       <c r="P88" t="n">
-        <v>0.8401360544217688</v>
+        <v>0.8344594594594594</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.6604681759115461</v>
+        <v>0.6827247074455213</v>
       </c>
     </row>
     <row r="89">
@@ -5490,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.8161290322580645</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="P89" t="n">
-        <v>0.8605442176870748</v>
+        <v>0.8243243243243243</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6640647168588332</v>
+        <v>0.6837482220807652</v>
       </c>
     </row>
     <row r="90">
@@ -5547,7 +5547,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.8125</v>
+        <v>0.8098360655737705</v>
       </c>
       <c r="P90" t="n">
-        <v>0.8401360544217688</v>
+        <v>0.8344594594594594</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.6660923280093093</v>
+        <v>0.6734629958045457</v>
       </c>
     </row>
     <row r="91">
@@ -5604,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>62.95503211991434</v>
+        <v>62.84501061571125</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.8089171974522293</v>
+        <v>0.8019169329073482</v>
       </c>
       <c r="P91" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.847972972972973</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.6677970673083238</v>
+        <v>0.6740121065684438</v>
       </c>
     </row>
     <row r="92">
@@ -5661,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.8187702265372169</v>
+        <v>0.825503355704698</v>
       </c>
       <c r="P92" t="n">
-        <v>0.8634812286689419</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.6635422574576512</v>
+        <v>0.6681974651471451</v>
       </c>
     </row>
     <row r="93">
@@ -5718,7 +5718,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.8362369337979094</v>
+        <v>0.8523985239852399</v>
       </c>
       <c r="P93" t="n">
-        <v>0.8191126279863481</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6638703707725772</v>
+        <v>0.6710486344402812</v>
       </c>
     </row>
     <row r="94">
@@ -5775,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.8469750889679716</v>
+        <v>0.8131147540983606</v>
       </c>
       <c r="P94" t="n">
-        <v>0.8122866894197952</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6622265322234041</v>
+        <v>0.6675228124257073</v>
       </c>
     </row>
     <row r="95">
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.8053691275167785</v>
+        <v>0.794392523364486</v>
       </c>
       <c r="P95" t="n">
-        <v>0.8191126279863481</v>
+        <v>0.8673469387755102</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.6738683999225658</v>
+        <v>0.6708974030339488</v>
       </c>
     </row>
     <row r="96">
@@ -5889,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.8132911392405063</v>
+        <v>0.8304498269896193</v>
       </c>
       <c r="P96" t="n">
-        <v>0.8771331058020477</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.6601962712503249</v>
+        <v>0.6686467690437202</v>
       </c>
     </row>
     <row r="97">
@@ -5946,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.803125</v>
+        <v>0.8281786941580757</v>
       </c>
       <c r="P97" t="n">
-        <v>0.8771331058020477</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.665481621731994</v>
+        <v>0.6678466140841008</v>
       </c>
     </row>
     <row r="98">
@@ -6003,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.8092105263157895</v>
+        <v>0.8278388278388278</v>
       </c>
       <c r="P98" t="n">
-        <v>0.8395904436860068</v>
+        <v>0.7687074829931972</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6705981676296521</v>
+        <v>0.6785242828107748</v>
       </c>
     </row>
     <row r="99">
@@ -6060,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.8093645484949833</v>
+        <v>0.8308270676691729</v>
       </c>
       <c r="P99" t="n">
-        <v>0.825938566552901</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.6725048301040485</v>
+        <v>0.6818393775176185</v>
       </c>
     </row>
     <row r="100">
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.8626760563380281</v>
+        <v>0.8220064724919094</v>
       </c>
       <c r="P100" t="n">
-        <v>0.8361774744027304</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.6532771305371357</v>
+        <v>0.665921164018439</v>
       </c>
     </row>
     <row r="101">
@@ -6174,7 +6174,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>63.01075268817205</v>
+        <v>62.95503211991434</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8546099290780141</v>
+        <v>0.8127090301003345</v>
       </c>
       <c r="P101" t="n">
-        <v>0.8225255972696246</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6557559841422624</v>
+        <v>0.6750069452046837</v>
       </c>
     </row>
   </sheetData>
